--- a/output/analysis/w+ws_avg-micro.xlsx
+++ b/output/analysis/w+ws_avg-micro.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="tdf" sheetId="1" state="visible" r:id="rId2"/>
@@ -460,8 +460,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G37" activeCellId="0" sqref="G37:K52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B30" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O51" activeCellId="0" sqref="O51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -730,8 +730,8 @@
         <v>0.16</v>
       </c>
       <c r="R6" s="1" t="n">
-        <f aca="false">SUM(R3:R5)</f>
-        <v>13944</v>
+        <f aca="false">SUM(K6,E6)</f>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -769,16 +769,13 @@
         <v>10</v>
       </c>
       <c r="O7" s="1" t="n">
-        <f aca="false">AVERAGE(B7,H7)</f>
-        <v>0.69</v>
+        <v>0.689489221949871</v>
       </c>
       <c r="P7" s="1" t="n">
-        <f aca="false">AVERAGE(C7,I7)</f>
-        <v>0.69</v>
+        <v>0.690282789232531</v>
       </c>
       <c r="Q7" s="1" t="n">
-        <f aca="false">AVERAGE(D7,J7)</f>
-        <v>0.69</v>
+        <v>0.68988577738356</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1062,8 +1059,8 @@
         <v>0</v>
       </c>
       <c r="R15" s="1" t="n">
-        <f aca="false">SUM(R12:R14)</f>
-        <v>4649</v>
+        <f aca="false">SUM(K15,E15)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1101,16 +1098,13 @@
         <v>10</v>
       </c>
       <c r="O16" s="1" t="n">
-        <f aca="false">AVERAGE(B16,H16)</f>
-        <v>0.715</v>
+        <v>0.717495633080902</v>
       </c>
       <c r="P16" s="1" t="n">
-        <f aca="false">AVERAGE(C16,I16)</f>
-        <v>0.715</v>
+        <v>0.715175005368263</v>
       </c>
       <c r="Q16" s="1" t="n">
-        <f aca="false">AVERAGE(D16,J16)</f>
-        <v>0.715</v>
+        <v>0.716333439758069</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1399,8 +1393,8 @@
         <v>0.23</v>
       </c>
       <c r="R24" s="1" t="n">
-        <f aca="false">SUM(R21:R23)</f>
-        <v>13944</v>
+        <f aca="false">SUM(K24,E24)</f>
+        <v>24</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1438,16 +1432,13 @@
         <v>10</v>
       </c>
       <c r="O25" s="1" t="n">
-        <f aca="false">AVERAGE(B25,H25)</f>
-        <v>0.805</v>
+        <v>0.807885791789126</v>
       </c>
       <c r="P25" s="1" t="n">
-        <f aca="false">AVERAGE(C25,I25)</f>
-        <v>0.805</v>
+        <v>0.807132731958763</v>
       </c>
       <c r="Q25" s="1" t="n">
-        <f aca="false">AVERAGE(D25,J25)</f>
-        <v>0.805</v>
+        <v>0.807509086303479</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1731,8 +1722,8 @@
         <v>0.185</v>
       </c>
       <c r="R33" s="1" t="n">
-        <f aca="false">SUM(R30:R32)</f>
-        <v>4649</v>
+        <f aca="false">SUM(K33,E33)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1770,16 +1761,13 @@
         <v>10</v>
       </c>
       <c r="O34" s="1" t="n">
-        <f aca="false">AVERAGE(B34,H34)</f>
-        <v>0.815</v>
+        <v>0.815566933207648</v>
       </c>
       <c r="P34" s="1" t="n">
-        <f aca="false">AVERAGE(C34,I34)</f>
-        <v>0.815</v>
+        <v>0.815472407129053</v>
       </c>
       <c r="Q34" s="1" t="n">
-        <f aca="false">AVERAGE(D34,J34)</f>
-        <v>0.815</v>
+        <v>0.815519667429244</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2068,8 +2056,8 @@
         <v>0.245</v>
       </c>
       <c r="R41" s="1" t="n">
-        <f aca="false">SUM(R38:R40)</f>
-        <v>13944</v>
+        <f aca="false">SUM(K41,E41)</f>
+        <v>24</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2107,16 +2095,13 @@
         <v>10</v>
       </c>
       <c r="O42" s="1" t="n">
-        <f aca="false">AVERAGE(B42,H42)</f>
-        <v>0.8</v>
+        <v>0.80534867623886</v>
       </c>
       <c r="P42" s="1" t="n">
-        <f aca="false">AVERAGE(C42,I42)</f>
-        <v>0.8</v>
+        <v>0.802553694158076</v>
       </c>
       <c r="Q42" s="1" t="n">
-        <f aca="false">AVERAGE(D42,J42)</f>
-        <v>0.8</v>
+        <v>0.803948755969873</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2400,8 +2385,8 @@
         <v>0</v>
       </c>
       <c r="R50" s="1" t="n">
-        <f aca="false">SUM(R47:R49)</f>
-        <v>4649</v>
+        <f aca="false">SUM(K50,E50)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2439,16 +2424,13 @@
         <v>10</v>
       </c>
       <c r="O51" s="1" t="n">
-        <f aca="false">AVERAGE(B51,H51)</f>
-        <v>0.805</v>
+        <v>0.809806605179705</v>
       </c>
       <c r="P51" s="1" t="n">
-        <f aca="false">AVERAGE(C51,I51)</f>
-        <v>0.805</v>
+        <v>0.809001503113592</v>
       </c>
       <c r="Q51" s="1" t="n">
-        <f aca="false">AVERAGE(D51,J51)</f>
-        <v>0.805</v>
+        <v>0.809403853940913</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2501,8 +2483,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G37" activeCellId="0" sqref="G37:K52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J24" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O51" activeCellId="0" sqref="O51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2771,8 +2753,8 @@
         <v>0.08</v>
       </c>
       <c r="R6" s="1" t="n">
-        <f aca="false">SUM(R3:R5)</f>
-        <v>13944</v>
+        <f aca="false">SUM(K6,E6)</f>
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2810,16 +2792,13 @@
         <v>10</v>
       </c>
       <c r="O7" s="1" t="n">
-        <f aca="false">AVERAGE(B7,H7)</f>
-        <v>0.69</v>
+        <v>0.693260254498088</v>
       </c>
       <c r="P7" s="1" t="n">
-        <f aca="false">AVERAGE(C7,I7)</f>
-        <v>0.69</v>
+        <v>0.689110466781214</v>
       </c>
       <c r="Q7" s="1" t="n">
-        <f aca="false">AVERAGE(D7,J7)</f>
-        <v>0.69</v>
+        <v>0.691179131942157</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3103,8 +3082,8 @@
         <v>0</v>
       </c>
       <c r="R15" s="1" t="n">
-        <f aca="false">SUM(R12:R14)</f>
-        <v>4649</v>
+        <f aca="false">SUM(K15,E15)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3142,16 +3121,13 @@
         <v>10</v>
       </c>
       <c r="O16" s="1" t="n">
-        <f aca="false">AVERAGE(B16,H16)</f>
-        <v>0.725</v>
+        <v>0.725952842757012</v>
       </c>
       <c r="P16" s="1" t="n">
-        <f aca="false">AVERAGE(C16,I16)</f>
-        <v>0.725</v>
+        <v>0.724696156323814</v>
       </c>
       <c r="Q16" s="1" t="n">
-        <f aca="false">AVERAGE(D16,J16)</f>
-        <v>0.725</v>
+        <v>0.72532395521136</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3440,8 +3416,8 @@
         <v>0.2</v>
       </c>
       <c r="R24" s="1" t="n">
-        <f aca="false">SUM(R21:R23)</f>
-        <v>13944</v>
+        <f aca="false">SUM(K24,E24)</f>
+        <v>24</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3479,16 +3455,13 @@
         <v>10</v>
       </c>
       <c r="O25" s="1" t="n">
-        <f aca="false">AVERAGE(B25,H25)</f>
-        <v>0.805</v>
+        <v>0.806812135886116</v>
       </c>
       <c r="P25" s="1" t="n">
-        <f aca="false">AVERAGE(C25,I25)</f>
-        <v>0.805</v>
+        <v>0.80290020045819</v>
       </c>
       <c r="Q25" s="1" t="n">
-        <f aca="false">AVERAGE(D25,J25)</f>
-        <v>0.805</v>
+        <v>0.804851414764216</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3772,8 +3745,8 @@
         <v>0</v>
       </c>
       <c r="R33" s="1" t="n">
-        <f aca="false">SUM(R30:R32)</f>
-        <v>4649</v>
+        <f aca="false">SUM(K33,E33)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3811,16 +3784,13 @@
         <v>10</v>
       </c>
       <c r="O34" s="1" t="n">
-        <f aca="false">AVERAGE(B34,H34)</f>
-        <v>0.82</v>
+        <v>0.818402555308314</v>
       </c>
       <c r="P34" s="1" t="n">
-        <f aca="false">AVERAGE(C34,I34)</f>
-        <v>0.82</v>
+        <v>0.818137212797939</v>
       </c>
       <c r="Q34" s="1" t="n">
-        <f aca="false">AVERAGE(D34,J34)</f>
-        <v>0.82</v>
+        <v>0.818269862542299</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4109,8 +4079,8 @@
         <v>0.295</v>
       </c>
       <c r="R41" s="1" t="n">
-        <f aca="false">SUM(R38:R40)</f>
-        <v>13944</v>
+        <f aca="false">SUM(K41,E41)</f>
+        <v>24</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4148,16 +4118,13 @@
         <v>10</v>
       </c>
       <c r="O42" s="1" t="n">
-        <f aca="false">AVERAGE(B42,H42)</f>
-        <v>0.805</v>
+        <v>0.806533277774062</v>
       </c>
       <c r="P42" s="1" t="n">
-        <f aca="false">AVERAGE(C42,I42)</f>
-        <v>0.805</v>
+        <v>0.804651703894616</v>
       </c>
       <c r="Q42" s="1" t="n">
-        <f aca="false">AVERAGE(D42,J42)</f>
-        <v>0.805</v>
+        <v>0.805591392164632</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4441,8 +4408,8 @@
         <v>0.145</v>
       </c>
       <c r="R50" s="1" t="n">
-        <f aca="false">SUM(R47:R49)</f>
-        <v>4649</v>
+        <f aca="false">SUM(K50,E50)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4480,16 +4447,13 @@
         <v>10</v>
       </c>
       <c r="O51" s="1" t="n">
-        <f aca="false">AVERAGE(B51,H51)</f>
-        <v>0.81</v>
+        <v>0.811324512196087</v>
       </c>
       <c r="P51" s="1" t="n">
-        <f aca="false">AVERAGE(C51,I51)</f>
-        <v>0.81</v>
+        <v>0.811837019540477</v>
       </c>
       <c r="Q51" s="1" t="n">
-        <f aca="false">AVERAGE(D51,J51)</f>
-        <v>0.81</v>
+        <v>0.811580684957118</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4543,7 +4507,7 @@
   <dimension ref="A1:AMJ52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G37" activeCellId="0" sqref="G37:K52"/>
+      <selection pane="topLeft" activeCell="G37" activeCellId="0" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6583,8 +6547,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G37" activeCellId="0" sqref="G37:K52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A42" activeCellId="0" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
